--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77550.49984686778</v>
+        <v>14787125.36971985</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77550.49984686778</v>
+        <v>14787125.36971985</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>249985.0059588</v>
+        <v>29470197.12226062</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249985.0059588</v>
+        <v>29470197.12226062</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1338026992.787255</v>
+        <v>24706190.94914764</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16858.57573726829</v>
+        <v>747217.8347692868</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31907.46201571686</v>
+        <v>1239821.08583455</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47098.15524318507</v>
+        <v>1732424.336899814</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>61992.20690907801</v>
+        <v>2224888.979204693</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76886.28282322078</v>
+        <v>2717392.967092829</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91780.53220561249</v>
+        <v>3209896.954980967</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106723.9004321154</v>
+        <v>3740338.234820991</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121601.5543144705</v>
+        <v>4257738.835744422</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136435.3089675961</v>
+        <v>4483413.32688073</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151904.2855662879</v>
+        <v>4809010.798792512</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>167373.2621649797</v>
+        <v>5134608.270704295</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>182842.2387636715</v>
+        <v>5460205.742616078</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>198311.2153623631</v>
+        <v>5785803.214527861</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>213869.3834165089</v>
+        <v>6087593.374211243</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>229384.5811957135</v>
+        <v>6362235.207978635</v>
       </c>
     </row>
   </sheetData>
